--- a/suggests/me/suggest.xlsx
+++ b/suggests/me/suggest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.104.137.47964"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="580" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,8 +16,15 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors/>
+  <commentList/>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>title</t>
   </si>
@@ -29,6 +36,57 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>이게나야</t>
+  </si>
+  <si>
+    <t>test 내용</t>
+  </si>
+  <si>
+    <t>test123</t>
+  </si>
+  <si>
+    <t>gkdnld</t>
+  </si>
+  <si>
+    <t>tretret</t>
+  </si>
+  <si>
+    <t>hfghf</t>
+  </si>
+  <si>
+    <t>rtyyur</t>
+  </si>
+  <si>
+    <t>kjhkhj</t>
+  </si>
+  <si>
+    <t>yuiyui</t>
+  </si>
+  <si>
+    <t>khjkk</t>
+  </si>
+  <si>
+    <t>kjsdf</t>
+  </si>
+  <si>
+    <t>mnbrwer</t>
+  </si>
+  <si>
+    <t>pouipxczc</t>
+  </si>
+  <si>
+    <t>wqeqwm,nb</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>./suggests/me/image/1485082176129.jpg</t>
   </si>
 </sst>
 </file>
@@ -600,8 +658,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -922,13 +983,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
+  <cols>
+    <col min="2" max="2" width="38.63000107" customWidth="1" outlineLevel="0"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="0" t="s">
@@ -942,12 +1006,181 @@
       </c>
       <c r="D1" s="0" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/suggests/me/suggest.xlsx
+++ b/suggests/me/suggest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.104.137.47964"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="580" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="570" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>title</t>
   </si>
@@ -87,6 +87,12 @@
   </si>
   <si>
     <t>./suggests/me/image/1485082176129.jpg</t>
+  </si>
+  <si>
+    <t>qwe</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
 </sst>
 </file>
@@ -983,10 +989,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -994,7 +1000,7 @@
     <col min="2" max="2" width="38.63000107" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -1007,8 +1013,11 @@
       <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="0" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="0" t="s">
         <v>4</v>
       </c>
@@ -1019,10 +1028,13 @@
         <v>5</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>6</v>
+        <v>21</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="0" t="s">
         <v>7</v>
       </c>
@@ -1033,10 +1045,13 @@
         <v>5</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>6</v>
+        <v>21</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="0" t="s">
         <v>8</v>
       </c>
@@ -1047,10 +1062,13 @@
         <v>5</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>6</v>
+        <v>21</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" s="0" t="s">
         <v>9</v>
       </c>
@@ -1061,10 +1079,13 @@
         <v>5</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>6</v>
+        <v>21</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" s="0" t="s">
         <v>10</v>
       </c>
@@ -1075,10 +1096,13 @@
         <v>5</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>6</v>
+        <v>21</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7" s="0" t="s">
         <v>11</v>
       </c>
@@ -1089,10 +1113,13 @@
         <v>5</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>6</v>
+        <v>21</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8" s="0" t="s">
         <v>12</v>
       </c>
@@ -1103,10 +1130,13 @@
         <v>5</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>6</v>
+        <v>21</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5">
       <c r="A9" s="0" t="s">
         <v>13</v>
       </c>
@@ -1117,10 +1147,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>6</v>
+        <v>21</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5">
       <c r="A10" s="0" t="s">
         <v>14</v>
       </c>
@@ -1131,10 +1164,13 @@
         <v>5</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>6</v>
+        <v>21</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5">
       <c r="A11" s="0" t="s">
         <v>15</v>
       </c>
@@ -1145,10 +1181,13 @@
         <v>5</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>6</v>
+        <v>21</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5">
       <c r="A12" s="0" t="s">
         <v>16</v>
       </c>
@@ -1159,10 +1198,13 @@
         <v>5</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>6</v>
+        <v>21</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:5">
       <c r="A13" s="0" t="s">
         <v>17</v>
       </c>
@@ -1173,7 +1215,10 @@
         <v>5</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>6</v>
+        <v>21</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/suggests/me/suggest.xlsx
+++ b/suggests/me/suggest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="4" lowestEdited="4" rupBuild="9.104.137.47964"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="590" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,15 +14,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors/>
-  <commentList/>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>title</t>
   </si>
@@ -39,6 +32,9 @@
     <t>name</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
     <t>이게나야</t>
   </si>
   <si>
@@ -51,6 +47,9 @@
     <t>qwe</t>
   </si>
   <si>
+    <t>2024-05-06</t>
+  </si>
+  <si>
     <t>gkdnld</t>
   </si>
   <si>
@@ -126,10 +125,40 @@
     <t>66</t>
   </si>
   <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>date</t>
+    <t>장비 착용 불량</t>
+  </si>
+  <si>
+    <t>ㅡㅡㅡ</t>
+  </si>
+  <si>
+    <t>./suggests/me/image/6.jpg</t>
+  </si>
+  <si>
+    <t>ㅡㅡㅡㅡ</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>./suggests/me/image/7.jpg</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>./suggests/me/image/8.jpg</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>./suggests/me/image/9.jpg</t>
+  </si>
+  <si>
+    <t>./suggests/me/image/10.jpg</t>
   </si>
 </sst>
 </file>
@@ -137,7 +166,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11.0"/>
       <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
@@ -260,6 +289,12 @@
       <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
       <scheme val="minor"/>
       <color theme="0"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="&amp;#xB9D1;&amp;#xC740; &amp;#xACE0;&amp;#xB515;"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
     </font>
     <font>
       <i/>
@@ -506,6 +541,7 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -514,6 +550,7 @@
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -522,6 +559,7 @@
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -530,6 +568,7 @@
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -544,6 +583,7 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -558,6 +598,7 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -572,6 +613,7 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -580,6 +622,7 @@
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -590,6 +633,7 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
@@ -668,10 +712,10 @@
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -680,10 +724,10 @@
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -692,10 +736,10 @@
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -704,10 +748,10 @@
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -716,10 +760,10 @@
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -728,25 +772,24 @@
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="20% - 강조색1" xfId="25" builtinId="30"/>
@@ -1087,14 +1130,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.000000"/>
   <cols>
+    <col min="1" max="1" width="14.38000011" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" width="25.50499916" customWidth="1" outlineLevel="0"/>
     <col min="6" max="6" width="11.63000011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
@@ -1115,413 +1160,252 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="0" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2">
-        <v>45303</v>
+        <v>9</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="0" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="2">
-        <v>45303</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="0" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="2">
-        <v>45303</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="C5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="2">
-        <v>45303</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="0" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="2">
-        <v>45303</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="0" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B7" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="2">
-        <v>45303</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="0" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="B8" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="2">
-        <v>45303</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="0" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B9" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="2">
-        <v>45303</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="0" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B10" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="2">
-        <v>45303</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="0" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B11" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="2">
-        <v>45303</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="0" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B12" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="2">
-        <v>45303</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="0" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="B13" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="2">
-        <v>45303</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="2">
-        <v>45303</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="2">
-        <v>45303</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="2">
-        <v>45303</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="2">
-        <v>45303</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="2">
-        <v>45303</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="2">
-        <v>45303</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="2">
-        <v>45303</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="2">
-        <v>45303</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1.00" bottom="1.00" header="0.50" footer="0.50"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/suggests/me/suggest.xlsx
+++ b/suggests/me/suggest.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="29">
   <si>
     <t>title</t>
   </si>
@@ -159,12 +159,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -472,18 +475,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="14.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="25.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="3" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="14.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="25.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="4" width="11.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21.75">
@@ -727,22 +730,202 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="3">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="3">
+        <v>3</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="3">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="3">
+        <v>5</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="3">
+        <v>7</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="3">
+        <v>7</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="3">
+        <v>7</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="3">
+        <v>6</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="3">
+        <v>7</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="2" t="s">
+      <c r="D23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
     </row>

--- a/suggests/me/suggest.xlsx
+++ b/suggests/me/suggest.xlsx
@@ -1,20 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <fileVersion appName="Polaris Office Sheet" lastEdited="5" lowestEdited="5" rupBuild="9.104.137.47964"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="590" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors/>
+  <commentList/>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>title</t>
   </si>
@@ -106,39 +114,343 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
+  <fonts count="20">
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="10"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="11"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <sz val="18.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="3"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F76"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF3F3F3F"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFFFFFF"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FFFA7D00"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="1"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF006100"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C0006"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF9C6500"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color theme="0"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11.0"/>
+      <name val="맑은 고딕"/>
+      <scheme val="minor"/>
+      <color rgb="FF7F7F7F"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -153,34 +465,313 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFACCCEA"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399980"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyFont="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="7" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  <cellStyles count="49">
+    <cellStyle name="20% - 강조색1" xfId="25" builtinId="30"/>
+    <cellStyle name="20% - 강조색2" xfId="29" builtinId="34"/>
+    <cellStyle name="20% - 강조색3" xfId="33" builtinId="38"/>
+    <cellStyle name="20% - 강조색4" xfId="37" builtinId="42"/>
+    <cellStyle name="20% - 강조색5" xfId="41" builtinId="46"/>
+    <cellStyle name="20% - 강조색6" xfId="45" builtinId="50"/>
+    <cellStyle name="40% - 강조색1" xfId="26" builtinId="31"/>
+    <cellStyle name="40% - 강조색2" xfId="30" builtinId="35"/>
+    <cellStyle name="40% - 강조색3" xfId="34" builtinId="39"/>
+    <cellStyle name="40% - 강조색4" xfId="38" builtinId="43"/>
+    <cellStyle name="40% - 강조색5" xfId="42" builtinId="47"/>
+    <cellStyle name="40% - 강조색6" xfId="46" builtinId="51"/>
+    <cellStyle name="60% - 강조색1" xfId="27" builtinId="32"/>
+    <cellStyle name="60% - 강조색2" xfId="31" builtinId="36"/>
+    <cellStyle name="60% - 강조색3" xfId="35" builtinId="40"/>
+    <cellStyle name="60% - 강조색4" xfId="39" builtinId="44"/>
+    <cellStyle name="60% - 강조색5" xfId="43" builtinId="48"/>
+    <cellStyle name="60% - 강조색6" xfId="47" builtinId="52"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="강조색1" xfId="24" builtinId="29"/>
+    <cellStyle name="강조색2" xfId="28" builtinId="33"/>
+    <cellStyle name="강조색3" xfId="32" builtinId="37"/>
+    <cellStyle name="강조색4" xfId="36" builtinId="41"/>
+    <cellStyle name="강조색5" xfId="40" builtinId="45"/>
+    <cellStyle name="강조색6" xfId="44" builtinId="49"/>
+    <cellStyle name="경고문" xfId="9" builtinId="11"/>
+    <cellStyle name="계산" xfId="17" builtinId="22"/>
+    <cellStyle name="나쁨" xfId="22" builtinId="27"/>
+    <cellStyle name="메모" xfId="8" builtinId="10"/>
+    <cellStyle name="백분율" xfId="3" builtinId="5"/>
+    <cellStyle name="보통" xfId="23" builtinId="28"/>
+    <cellStyle name="설명텍스트" xfId="48" builtinId="53"/>
+    <cellStyle name="셀 확인" xfId="18" builtinId="23"/>
+    <cellStyle name="쉼표" xfId="1" builtinId="3"/>
+    <cellStyle name="쉼표[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="연결된 셀" xfId="19" builtinId="24"/>
+    <cellStyle name="열어본 하이퍼링크" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="요약" xfId="20" builtinId="25"/>
+    <cellStyle name="입력" xfId="15" builtinId="20"/>
+    <cellStyle name="제목" xfId="10" builtinId="15"/>
+    <cellStyle name="제목 1" xfId="11" builtinId="16"/>
+    <cellStyle name="제목 2" xfId="12" builtinId="17"/>
+    <cellStyle name="제목 3" xfId="13" builtinId="18"/>
+    <cellStyle name="제목 4" xfId="14" builtinId="19"/>
+    <cellStyle name="좋음" xfId="21" builtinId="26"/>
+    <cellStyle name="출력" xfId="16" builtinId="21"/>
+    <cellStyle name="통화" xfId="2" builtinId="4"/>
+    <cellStyle name="통화[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="하이퍼링크" xfId="6" builtinId="8" hidden="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -468,25 +1059,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:F13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:F19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.500000"/>
   <cols>
-    <col min="1" max="1" style="3" width="14.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="25.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="3" width="11.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="2" width="14.38000011" customWidth="1" outlineLevel="0"/>
+    <col min="2" max="2" style="2" width="25.62999916" customWidth="1" outlineLevel="0"/>
+    <col min="3" max="5" style="2" width="13.63000011" customWidth="1" outlineLevel="0"/>
+    <col min="6" max="6" style="2" width="11.63000011" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21.75">
+    <row r="1" spans="1:6" ht="21.750000" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -506,7 +1094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:6" ht="18.750000" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -526,7 +1114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:6" ht="18.750000" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -546,7 +1134,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:6" ht="18.750000" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -566,7 +1154,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:6" ht="18.750000" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -586,7 +1174,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:6" ht="18.750000" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -606,7 +1194,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:6" ht="18.750000" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -626,7 +1214,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:6" ht="18.750000" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -646,7 +1234,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:6" ht="18.750000" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
@@ -666,7 +1254,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:6" ht="18.750000" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
@@ -686,7 +1274,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:6" ht="18.750000" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>24</v>
       </c>
@@ -706,7 +1294,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:6" ht="18.750000" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
@@ -726,7 +1314,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:6" ht="18.750000" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
@@ -746,7 +1334,130 @@
         <v>10</v>
       </c>
     </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.70" right="0.70" top="0.75" bottom="0.75" header="0.30" footer="0.30"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>